--- a/horikawa/perception_runs.xlsx
+++ b/horikawa/perception_runs.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aherk\ccn_scripts\horikawa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F98C1D5-A1B0-4E56-9321-7FC6829409A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,6 +147,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -181,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +230,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,56 +474,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F2" s="3">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -482,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>9</v>
@@ -493,105 +528,291 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
         <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
       <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
         <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2">
-        <f>SUM(B2:B7)</f>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2">
+        <f>SUM(B3:B8)</f>
         <v>35</v>
       </c>
-      <c r="C8" s="2">
-        <f>SUM(C2:C7)</f>
+      <c r="C9" s="2">
+        <f>SUM(C3:C8)</f>
         <v>35</v>
       </c>
-      <c r="D8" s="2">
-        <f>SUM(D2:D7)</f>
+      <c r="D9" s="2">
+        <f>SUM(D3:D8)</f>
         <v>35</v>
       </c>
-      <c r="E8" s="2">
-        <f>SUM(E2:E7)</f>
+      <c r="E9" s="2">
+        <f>SUM(E3:E8)</f>
         <v>35</v>
       </c>
-      <c r="F8" s="2">
-        <f>SUM(F2:F7)</f>
+      <c r="F9" s="2">
+        <f>SUM(F3:F8)</f>
         <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2">
+        <f>SUM(B13:B18)</f>
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUM(C13:C18)</f>
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM(D13:D18)</f>
+        <v>24</v>
+      </c>
+      <c r="E19" s="2">
+        <f>SUM(E13:E18)</f>
+        <v>24</v>
+      </c>
+      <c r="F19" s="2">
+        <f>SUM(F13:F18)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -613,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
